--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -680,10 +692,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -727,28 +739,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -773,28 +785,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1230,10 +1242,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1277,28 +1289,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1323,28 +1335,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1780,10 +1792,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1827,28 +1839,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1873,28 +1885,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2156,10 +2168,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2203,28 +2215,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2249,28 +2261,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2590,10 +2602,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2637,28 +2649,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2683,28 +2695,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2966,10 +2978,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3013,28 +3025,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3059,28 +3071,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3371,10 +3383,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3418,28 +3430,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3464,28 +3476,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3776,10 +3788,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3823,28 +3835,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3869,28 +3881,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4135,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4170,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4228,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4383,10 +4395,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4430,28 +4442,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4476,28 +4488,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
